--- a/excel_books/bbdd_sfdr_wip.xlsx
+++ b/excel_books/bbdd_sfdr_wip.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet.sharepoint.com/sites/ESGTEAM552/Shared Documents/Archivos/Archivos Red/Fondos éticos/09. REGULACIÓN/04_SFDR/Info_Periódica/Revisión_generación/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="8_{BBF384ED-78AF-47CF-9DFA-BD9893418057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50F8F86C-DDD9-4313-89AC-EF72E7DED6C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F06AA4-4A01-44BE-B2C5-EB653B38B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15435" yWindow="-16425" windowWidth="29040" windowHeight="15840" xr2:uid="{E9EDE50E-DEA4-4E38-B493-23471F5C8DA9}"/>
+    <workbookView xWindow="14760" yWindow="-16470" windowWidth="29040" windowHeight="16440" xr2:uid="{E9EDE50E-DEA4-4E38-B493-23471F5C8DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$150</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1691,7 +1691,7 @@
     <t>PFIT0516</t>
   </si>
   <si>
-    <t>Fundo De Investimento Mobiliário Aberto de Ações Santander Acções Europa</t>
+    <t>Fundo de Investimento Mobiliário Aberto de Ações Santander Acções Europa</t>
   </si>
   <si>
     <t>5493000MEK7GQ3X3RT85. ISIN: PTYSADLM0008; PTYSANHM0002</t>
@@ -1706,7 +1706,7 @@
     <t>PFIT0605</t>
   </si>
   <si>
-    <t>Fundo De Investimento Alternativo Aberto de Poupança Reforma Santander Poupança Prudente FPR</t>
+    <t>Fundo de Investimento Alternativo Aberto de Poupança Reforma Santander Poupança Prudente FPR</t>
   </si>
   <si>
     <t>5493004I3WS5T3F63O98. ISIN: PTYSAVLM0006</t>
@@ -1796,9 +1796,6 @@
     <t>PFIT1830</t>
   </si>
   <si>
-    <t>Fundo de Investimento Mobiliário Aberto de Obrigações de Poupança Reforma Santander Aforro PPR/OICVM</t>
-  </si>
-  <si>
     <t>549300NK9YXGJCPV4J35. ISIN: PTSFFAHM0013</t>
   </si>
   <si>
@@ -1911,13 +1908,16 @@
   </si>
   <si>
     <t>12/12/2024 - 31/12/2024</t>
+  </si>
+  <si>
+    <t>Fundo de Investimento Mobiliário Aberto de Obrigações de Poupança Reforma Santander Aforro PPR OICVM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1959,13 +1959,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Santander Text"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -2166,9 +2169,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2507,24 +2510,24 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="21" customWidth="1"/>
-    <col min="9" max="10" width="25.5703125" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="17"/>
+    <col min="1" max="1" width="28.7265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="67.54296875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="57.1796875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="28.54296875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" style="21" customWidth="1"/>
+    <col min="9" max="10" width="25.54296875" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="16.5">
+    <row r="1" spans="1:11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2560,7 @@
       </c>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" hidden="1">
+    <row r="2" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" hidden="1">
+    <row r="3" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" hidden="1">
+    <row r="4" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" hidden="1">
+    <row r="5" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" hidden="1">
+    <row r="6" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" hidden="1">
+    <row r="7" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" hidden="1">
+    <row r="8" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -2769,7 +2772,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" hidden="1">
+    <row r="9" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" hidden="1">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" hidden="1">
+    <row r="11" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
@@ -2865,7 +2868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" hidden="1">
+    <row r="12" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" hidden="1">
+    <row r="13" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" hidden="1">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" hidden="1">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
@@ -2989,7 +2992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" hidden="1">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>84</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" hidden="1">
+    <row r="17" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>90</v>
       </c>
@@ -3053,7 +3056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" hidden="1">
+    <row r="18" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>95</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" hidden="1">
+    <row r="19" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>100</v>
       </c>
@@ -3117,7 +3120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" hidden="1">
+    <row r="20" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>106</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" hidden="1">
+    <row r="21" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>112</v>
       </c>
@@ -3181,7 +3184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" hidden="1">
+    <row r="22" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>117</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" hidden="1">
+    <row r="23" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
         <v>123</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" hidden="1">
+    <row r="24" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
         <v>128</v>
       </c>
@@ -3277,7 +3280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" hidden="1">
+    <row r="25" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
         <v>133</v>
       </c>
@@ -3309,7 +3312,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" hidden="1">
+    <row r="26" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
         <v>140</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>80.06</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" hidden="1">
+    <row r="27" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>146</v>
       </c>
@@ -3373,7 +3376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" hidden="1">
+    <row r="28" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
         <v>151</v>
       </c>
@@ -3405,7 +3408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" hidden="1">
+    <row r="29" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>156</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" hidden="1">
+    <row r="30" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
         <v>161</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" hidden="1">
+    <row r="31" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
         <v>166</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" hidden="1">
+    <row r="32" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>171</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" hidden="1">
+    <row r="33" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>176</v>
       </c>
@@ -3565,7 +3568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" hidden="1">
+    <row r="34" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>182</v>
       </c>
@@ -3593,7 +3596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" hidden="1">
+    <row r="35" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>186</v>
       </c>
@@ -3625,7 +3628,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" hidden="1">
+    <row r="36" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>191</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" hidden="1">
+    <row r="37" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>197</v>
       </c>
@@ -3689,7 +3692,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" hidden="1">
+    <row r="38" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>201</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" hidden="1">
+    <row r="39" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>206</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" hidden="1">
+    <row r="40" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>212</v>
       </c>
@@ -3781,7 +3784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" hidden="1">
+    <row r="41" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>216</v>
       </c>
@@ -3813,7 +3816,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" hidden="1">
+    <row r="42" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>222</v>
       </c>
@@ -3845,7 +3848,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" hidden="1">
+    <row r="43" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>227</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" hidden="1">
+    <row r="44" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18" t="s">
         <v>232</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" hidden="1">
+    <row r="45" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>237</v>
       </c>
@@ -3941,7 +3944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" hidden="1">
+    <row r="46" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>242</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" hidden="1">
+    <row r="47" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>248</v>
       </c>
@@ -4005,7 +4008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" hidden="1">
+    <row r="48" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>253</v>
       </c>
@@ -4025,7 +4028,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="16.5" hidden="1">
+    <row r="49" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>256</v>
       </c>
@@ -4045,7 +4048,7 @@
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="16.5" hidden="1">
+    <row r="50" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>258</v>
       </c>
@@ -4065,7 +4068,7 @@
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="16.5" hidden="1">
+    <row r="51" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>260</v>
       </c>
@@ -4085,7 +4088,7 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5" hidden="1">
+    <row r="52" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>262</v>
       </c>
@@ -4105,7 +4108,7 @@
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5" hidden="1">
+    <row r="53" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>264</v>
       </c>
@@ -4125,7 +4128,7 @@
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="16.5" hidden="1">
+    <row r="54" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>266</v>
       </c>
@@ -4145,7 +4148,7 @@
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" hidden="1">
+    <row r="55" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>268</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" hidden="1">
+    <row r="56" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>273</v>
       </c>
@@ -4193,7 +4196,7 @@
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" hidden="1">
+    <row r="57" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>275</v>
       </c>
@@ -4213,7 +4216,7 @@
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" hidden="1">
+    <row r="58" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>277</v>
       </c>
@@ -4233,7 +4236,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="16.5" hidden="1">
+    <row r="59" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>279</v>
       </c>
@@ -4253,7 +4256,7 @@
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5" hidden="1">
+    <row r="60" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>281</v>
       </c>
@@ -4273,7 +4276,7 @@
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5" hidden="1">
+    <row r="61" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>283</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" hidden="1">
+    <row r="62" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>287</v>
       </c>
@@ -4333,7 +4336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" hidden="1">
+    <row r="63" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" hidden="1">
+    <row r="64" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>298</v>
       </c>
@@ -4397,7 +4400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" hidden="1">
+    <row r="65" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>303</v>
       </c>
@@ -4417,7 +4420,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" hidden="1">
+    <row r="66" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>305</v>
       </c>
@@ -4437,7 +4440,7 @@
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" hidden="1">
+    <row r="67" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>307</v>
       </c>
@@ -4457,7 +4460,7 @@
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" hidden="1">
+    <row r="68" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>309</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" hidden="1">
+    <row r="69" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>312</v>
       </c>
@@ -4517,7 +4520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" hidden="1">
+    <row r="70" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>317</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" hidden="1">
+    <row r="71" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>321</v>
       </c>
@@ -4565,7 +4568,7 @@
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" hidden="1">
+    <row r="72" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>323</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" hidden="1">
+    <row r="73" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>327</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" hidden="1">
+    <row r="74" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>331</v>
       </c>
@@ -4653,7 +4656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16.5" hidden="1">
+    <row r="75" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>337</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" hidden="1">
+    <row r="76" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>342</v>
       </c>
@@ -4705,7 +4708,7 @@
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" hidden="1">
+    <row r="77" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>344</v>
       </c>
@@ -4725,7 +4728,7 @@
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" hidden="1">
+    <row r="78" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>346</v>
       </c>
@@ -4745,7 +4748,7 @@
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" hidden="1">
+    <row r="79" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>348</v>
       </c>
@@ -4765,7 +4768,7 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" hidden="1">
+    <row r="80" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>350</v>
       </c>
@@ -4785,7 +4788,7 @@
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" hidden="1">
+    <row r="81" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>352</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16.5" hidden="1">
+    <row r="82" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>357</v>
       </c>
@@ -4849,7 +4852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16.5" hidden="1">
+    <row r="83" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>361</v>
       </c>
@@ -4869,7 +4872,7 @@
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" hidden="1">
+    <row r="84" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>363</v>
       </c>
@@ -4889,7 +4892,7 @@
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" hidden="1">
+    <row r="85" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>365</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" hidden="1">
+    <row r="86" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>368</v>
       </c>
@@ -4937,7 +4940,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" hidden="1">
+    <row r="87" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>370</v>
       </c>
@@ -4969,7 +4972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" hidden="1">
+    <row r="88" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>375</v>
       </c>
@@ -4989,7 +4992,7 @@
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" hidden="1">
+    <row r="89" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>377</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" hidden="1">
+    <row r="90" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>381</v>
       </c>
@@ -5037,7 +5040,7 @@
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" ht="16.5" hidden="1">
+    <row r="91" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>383</v>
       </c>
@@ -5057,7 +5060,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" hidden="1">
+    <row r="92" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>385</v>
       </c>
@@ -5077,7 +5080,7 @@
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" hidden="1">
+    <row r="93" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>387</v>
       </c>
@@ -5097,7 +5100,7 @@
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" hidden="1">
+    <row r="94" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>389</v>
       </c>
@@ -5117,7 +5120,7 @@
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" hidden="1">
+    <row r="95" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>391</v>
       </c>
@@ -5137,7 +5140,7 @@
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" hidden="1">
+    <row r="96" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>393</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16.5" hidden="1">
+    <row r="97" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>397</v>
       </c>
@@ -5185,7 +5188,7 @@
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" ht="16.5" hidden="1">
+    <row r="98" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>399</v>
       </c>
@@ -5217,7 +5220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16.5" hidden="1">
+    <row r="99" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>404</v>
       </c>
@@ -5237,7 +5240,7 @@
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" hidden="1">
+    <row r="100" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>406</v>
       </c>
@@ -5257,7 +5260,7 @@
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" ht="16.5" hidden="1">
+    <row r="101" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>408</v>
       </c>
@@ -5277,7 +5280,7 @@
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" ht="15" hidden="1">
+    <row r="102" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>410</v>
       </c>
@@ -5301,7 +5304,7 @@
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
     </row>
-    <row r="103" spans="1:10" ht="16.5" hidden="1">
+    <row r="103" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>416</v>
       </c>
@@ -5333,7 +5336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="16.5" hidden="1">
+    <row r="104" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>422</v>
       </c>
@@ -5365,7 +5368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="16.5" hidden="1">
+    <row r="105" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>426</v>
       </c>
@@ -5391,7 +5394,7 @@
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106" spans="1:10" ht="16.5" hidden="1">
+    <row r="106" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>430</v>
       </c>
@@ -5423,7 +5426,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" hidden="1">
+    <row r="107" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>434</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" hidden="1">
+    <row r="108" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>438</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="16.5" hidden="1">
+    <row r="109" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>441</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16.5" hidden="1">
+    <row r="110" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>445</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16.5" hidden="1">
+    <row r="111" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>449</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="16.5" hidden="1">
+    <row r="112" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>453</v>
       </c>
@@ -5607,7 +5610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="16.5" hidden="1">
+    <row r="113" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>457</v>
       </c>
@@ -5634,7 +5637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="16.5" hidden="1">
+    <row r="114" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>461</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="16.5" hidden="1">
+    <row r="115" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>464</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="16.5" hidden="1">
+    <row r="116" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>468</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="16.5" hidden="1">
+    <row r="117" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>472</v>
       </c>
@@ -5746,7 +5749,7 @@
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" hidden="1">
+    <row r="118" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>478</v>
       </c>
@@ -5774,7 +5777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="16.5" hidden="1">
+    <row r="119" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>482</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="16.5" hidden="1">
+    <row r="120" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>489</v>
       </c>
@@ -5832,7 +5835,7 @@
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="1:10" ht="16.5" hidden="1">
+    <row r="121" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>494</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="16.5" hidden="1">
+    <row r="122" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>499</v>
       </c>
@@ -5888,7 +5891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="16.5" hidden="1">
+    <row r="123" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>504</v>
       </c>
@@ -5912,7 +5915,7 @@
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" hidden="1">
+    <row r="124" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>509</v>
       </c>
@@ -5936,7 +5939,7 @@
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125" spans="1:10" ht="18" hidden="1" customHeight="1">
+    <row r="125" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>514</v>
       </c>
@@ -5960,7 +5963,7 @@
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" hidden="1">
+    <row r="126" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>519</v>
       </c>
@@ -5984,7 +5987,7 @@
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="1:10" s="35" customFormat="1" ht="16.5">
+    <row r="127" spans="1:10" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A127" s="30" t="s">
         <v>523</v>
       </c>
@@ -6016,7 +6019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="35" customFormat="1" ht="16.5">
+    <row r="128" spans="1:10" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A128" s="30" t="s">
         <v>532</v>
       </c>
@@ -6040,7 +6043,7 @@
       <c r="I128" s="36"/>
       <c r="J128" s="36"/>
     </row>
-    <row r="129" spans="1:10" ht="33">
+    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>536</v>
       </c>
@@ -6070,7 +6073,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="33">
+    <row r="130" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>541</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="33">
+    <row r="131" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>545</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="16.5">
+    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>549</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="33">
+    <row r="133" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>554</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="16.5">
+    <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>558</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="16.5">
+    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>562</v>
       </c>
@@ -6250,7 +6253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="16.5">
+    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>566</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="16.5">
+    <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>570</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="16.5">
+    <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>574</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="16.5">
+    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>577</v>
       </c>
@@ -6370,7 +6373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="16.5">
+    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>581</v>
       </c>
@@ -6400,15 +6403,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="33">
+    <row r="141" spans="1:10" ht="33" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>584</v>
       </c>
       <c r="B141" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="C141" s="16" t="s">
         <v>585</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>586</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>13</v>
@@ -6421,7 +6424,7 @@
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I141" s="8" t="s">
         <v>531</v>
@@ -6430,15 +6433,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="16.5">
+    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="C142" s="16" t="s">
         <v>589</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>590</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>13</v>
@@ -6447,26 +6450,26 @@
         <v>527</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="16.5">
+    <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>594</v>
-      </c>
       <c r="C143" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>13</v>
@@ -6475,26 +6478,26 @@
         <v>527</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="16.5">
+    <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>597</v>
-      </c>
       <c r="C144" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>13</v>
@@ -6503,155 +6506,155 @@
         <v>527</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" hidden="1">
+    <row r="145" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A145" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B145" s="37" t="s">
         <v>599</v>
       </c>
-      <c r="B145" s="37" t="s">
+      <c r="C145" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="C145" s="37" t="s">
+      <c r="D145" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="D145" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>603</v>
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="14"/>
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
     </row>
-    <row r="146" spans="1:10" ht="15" hidden="1">
+    <row r="146" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A146" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B146" s="37" t="s">
         <v>604</v>
       </c>
-      <c r="B146" s="37" t="s">
+      <c r="C146" s="37" t="s">
         <v>605</v>
       </c>
-      <c r="C146" s="37" t="s">
+      <c r="D146" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="D146" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="14"/>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="1:10" ht="15" hidden="1">
+    <row r="147" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A147" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B147" s="37" t="s">
         <v>608</v>
       </c>
-      <c r="B147" s="37" t="s">
+      <c r="C147" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="C147" s="37" t="s">
+      <c r="D147" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="D147" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="14"/>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="1:10" ht="15" hidden="1">
+    <row r="148" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A148" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B148" s="37" t="s">
         <v>612</v>
       </c>
-      <c r="B148" s="37" t="s">
+      <c r="C148" s="37" t="s">
         <v>613</v>
       </c>
-      <c r="C148" s="37" t="s">
-        <v>614</v>
-      </c>
       <c r="D148" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E148" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>602</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>603</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="14"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
     </row>
-    <row r="149" spans="1:10" ht="15" hidden="1">
+    <row r="149" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A149" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="B149" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="B149" s="37" t="s">
+      <c r="C149" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="C149" s="37" t="s">
+      <c r="D149" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="D149" s="38" t="s">
+      <c r="E149" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F149" s="29" t="s">
         <v>618</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="F149" s="29" t="s">
-        <v>619</v>
       </c>
       <c r="G149" s="28"/>
       <c r="H149" s="28"/>
       <c r="I149" s="28"/>
       <c r="J149" s="28"/>
     </row>
-    <row r="150" spans="1:10" ht="15" hidden="1">
+    <row r="150" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
       <c r="A150" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B150" s="37" t="s">
         <v>620</v>
       </c>
-      <c r="B150" s="37" t="s">
+      <c r="C150" s="37" t="s">
         <v>621</v>
       </c>
-      <c r="C150" s="37" t="s">
+      <c r="D150" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="D150" s="38" t="s">
-        <v>623</v>
-      </c>
       <c r="E150" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G150" s="28"/>
       <c r="H150" s="28"/>
@@ -6665,22 +6668,17 @@
         <filter val="PT"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:K144">
+      <sortCondition ref="A1:A150"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
@@ -6690,6 +6688,15 @@
     <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6908,13 +6915,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8E79D5-88FA-489E-8500-1B15CD65140C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A9289C4-D150-42AA-B6FF-66D9C6607C50}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A9289C4-D150-42AA-B6FF-66D9C6607C50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8E79D5-88FA-489E-8500-1B15CD65140C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3EC13CA-7BDB-4D66-8673-9D7BF7DB0AE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3EC13CA-7BDB-4D66-8673-9D7BF7DB0AE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
+    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/excel_books/bbdd_sfdr_wip.xlsx
+++ b/excel_books/bbdd_sfdr_wip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n740789\Documents\sfdr_report_generator\excel_books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://santandernet.sharepoint.com/sites/ESGTEAM552/Shared Documents/Archivos/Archivos Red/Fondos éticos/09. REGULACIÓN/04_SFDR/Info_Periódica/Revisión_generación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F06AA4-4A01-44BE-B2C5-EB653B38B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="826" documentId="8_{BBF384ED-78AF-47CF-9DFA-BD9893418057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34450A2B-F8AF-4BDE-B22C-55538B081EFB}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="-16470" windowWidth="29040" windowHeight="16440" xr2:uid="{E9EDE50E-DEA4-4E38-B493-23471F5C8DA9}"/>
+    <workbookView xWindow="-15435" yWindow="-16425" windowWidth="29040" windowHeight="15840" xr2:uid="{E9EDE50E-DEA4-4E38-B493-23471F5C8DA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="634">
   <si>
     <t>aladdin_code</t>
   </si>
@@ -1253,6 +1253,9 @@
     <t>2.06% en 2023</t>
   </si>
   <si>
+    <t xml:space="preserve">A- </t>
+  </si>
+  <si>
     <t>FPH00630</t>
   </si>
   <si>
@@ -1271,6 +1274,288 @@
     <t>Santander Ahorro 15, F.P.</t>
   </si>
   <si>
+    <t>LXMS0020</t>
+  </si>
+  <si>
+    <t>Santander AM Euro Corporate Bond</t>
+  </si>
+  <si>
+    <t>95980020140005500000</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>art8_fi_10_eng</t>
+  </si>
+  <si>
+    <t>2.12% in 2022</t>
+  </si>
+  <si>
+    <t>5.74% in 2023</t>
+  </si>
+  <si>
+    <t>A- in 2022,</t>
+  </si>
+  <si>
+    <t>LXMS0040</t>
+  </si>
+  <si>
+    <t>Santander European Dividend</t>
+  </si>
+  <si>
+    <t>2.06% in 2022</t>
+  </si>
+  <si>
+    <t>4.41% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0240</t>
+  </si>
+  <si>
+    <t>Santander AM Euro Equity</t>
+  </si>
+  <si>
+    <t>2.63% in 2022</t>
+  </si>
+  <si>
+    <t>4.61% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0360</t>
+  </si>
+  <si>
+    <t>Santander Corporate Coupon</t>
+  </si>
+  <si>
+    <t>2.07% in 2022</t>
+  </si>
+  <si>
+    <t>2.05% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0650</t>
+  </si>
+  <si>
+    <t>Santander Future Wealth</t>
+  </si>
+  <si>
+    <t>222100U8QAL5OT5ATQ18</t>
+  </si>
+  <si>
+    <t>4.66% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0340</t>
+  </si>
+  <si>
+    <t>Santander Multi Asset Conservative Growth</t>
+  </si>
+  <si>
+    <t>art8_fi_eng</t>
+  </si>
+  <si>
+    <t>1.92% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0350</t>
+  </si>
+  <si>
+    <t>Santander Multi Asset Aggresive Growth</t>
+  </si>
+  <si>
+    <t>0.16% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0520</t>
+  </si>
+  <si>
+    <t>Santander Select Defensive</t>
+  </si>
+  <si>
+    <t>0.65% in 2022</t>
+  </si>
+  <si>
+    <t>1.67% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0530</t>
+  </si>
+  <si>
+    <t>Santander Select Moderate</t>
+  </si>
+  <si>
+    <t>0.95% in 2022</t>
+  </si>
+  <si>
+    <t>1.77% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0540</t>
+  </si>
+  <si>
+    <t>Santander Select Dynamic</t>
+  </si>
+  <si>
+    <t>1.27% in 2022</t>
+  </si>
+  <si>
+    <t>1.88% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0550</t>
+  </si>
+  <si>
+    <t>Santander Multi Index Ambition</t>
+  </si>
+  <si>
+    <t>9598007G946BVLPNB203</t>
+  </si>
+  <si>
+    <t>1.95% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0560</t>
+  </si>
+  <si>
+    <t>Santander Multi Index Balance</t>
+  </si>
+  <si>
+    <t>1.63% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0570</t>
+  </si>
+  <si>
+    <t>Santander Multi Index Substance</t>
+  </si>
+  <si>
+    <t>959800584EXE1C3KEB87</t>
+  </si>
+  <si>
+    <t>1.34% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0580</t>
+  </si>
+  <si>
+    <t>Santander Select Income</t>
+  </si>
+  <si>
+    <t>9598006HEB2F274GR185</t>
+  </si>
+  <si>
+    <t>1.93% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0730</t>
+  </si>
+  <si>
+    <t>Santander Target Maturity 2025 Euro</t>
+  </si>
+  <si>
+    <t>213800DWGL9SKQ9J2V62</t>
+  </si>
+  <si>
+    <t>art8_nopai_eng</t>
+  </si>
+  <si>
+    <t>7.32% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0770</t>
+  </si>
+  <si>
+    <t>Santander Target Maturity Euro II</t>
+  </si>
+  <si>
+    <t>213800PW972JZ4RWG390</t>
+  </si>
+  <si>
+    <t>27/02/2024 - 31/12/2024</t>
+  </si>
+  <si>
+    <t>art8_nopai_noprev_eng</t>
+  </si>
+  <si>
+    <t>LXMS0790</t>
+  </si>
+  <si>
+    <t>Santander Target Maturity Euro III</t>
+  </si>
+  <si>
+    <t>2138001YITBC1N3O2O34</t>
+  </si>
+  <si>
+    <t>9/7/2024 - 31/12/2024</t>
+  </si>
+  <si>
+    <t>LXMS0750</t>
+  </si>
+  <si>
+    <t>Santander Multi Index Income</t>
+  </si>
+  <si>
+    <t>213800ZZDSJ7BUR7SO54</t>
+  </si>
+  <si>
+    <t>18/01/2024 - 31/12/2024</t>
+  </si>
+  <si>
+    <t>art8_noprev_eng</t>
+  </si>
+  <si>
+    <t>LXMS0680</t>
+  </si>
+  <si>
+    <t>Santander Prosperity</t>
+  </si>
+  <si>
+    <t>213800WJFHHC61MCKV72</t>
+  </si>
+  <si>
+    <t>art9_prosperity</t>
+  </si>
+  <si>
+    <t>3.05% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0720</t>
+  </si>
+  <si>
+    <t>Santander US Equity ESG</t>
+  </si>
+  <si>
+    <t>213800DI4XPBXR5VYI22</t>
+  </si>
+  <si>
+    <t>esg_fi_eng</t>
+  </si>
+  <si>
+    <t>0.29% in 2023</t>
+  </si>
+  <si>
+    <t>LXMS0660</t>
+  </si>
+  <si>
+    <t>Santander Latin American Investment Grade ESG Bond</t>
+  </si>
+  <si>
+    <t>2221005XUWXMGGGB3M32</t>
+  </si>
+  <si>
+    <t>esg_latam</t>
+  </si>
+  <si>
+    <t>0.47% in 2022</t>
+  </si>
+  <si>
+    <t>1.16% in 2023</t>
+  </si>
+  <si>
+    <t>A- in 2022 and 2021</t>
+  </si>
+  <si>
     <t>LXMA0012</t>
   </si>
   <si>
@@ -1283,40 +1568,22 @@
     <t>30/09/2024 - 31/12/2024</t>
   </si>
   <si>
-    <t>LUX</t>
-  </si>
-  <si>
     <t>go_amundi</t>
   </si>
   <si>
-    <t>LXMS0020</t>
-  </si>
-  <si>
-    <t>Santander AM Euro Corporate Bond</t>
-  </si>
-  <si>
-    <t>95980020140005500000</t>
-  </si>
-  <si>
-    <t>art8_fi_10_eng</t>
-  </si>
-  <si>
-    <t>2.12% in 2022</t>
-  </si>
-  <si>
-    <t>5.74% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0040</t>
-  </si>
-  <si>
-    <t>Santander European Dividend</t>
-  </si>
-  <si>
-    <t>2.06% in 2022</t>
-  </si>
-  <si>
-    <t>4.41% in 2023</t>
+    <t>LXMS0780</t>
+  </si>
+  <si>
+    <t>Santander Go Global Environmental Solutions - BNP Paribas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 213800115BDICDFT5J73</t>
+  </si>
+  <si>
+    <t>21/05/2024 - 31/12/2024</t>
+  </si>
+  <si>
+    <t>go_bnp</t>
   </si>
   <si>
     <t>LXMS0170</t>
@@ -1331,132 +1598,6 @@
     <t>0.31% in 2023</t>
   </si>
   <si>
-    <t>LXMS0240</t>
-  </si>
-  <si>
-    <t>Santander AM Euro Equity</t>
-  </si>
-  <si>
-    <t>2.63% in 2022</t>
-  </si>
-  <si>
-    <t>4.61% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0340</t>
-  </si>
-  <si>
-    <t>Santander Multi Asset Conservative Growth</t>
-  </si>
-  <si>
-    <t>art8_fi_eng</t>
-  </si>
-  <si>
-    <t>1.92% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0350</t>
-  </si>
-  <si>
-    <t>Santander Multi Asset Aggresive Growth</t>
-  </si>
-  <si>
-    <t>0.16% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0360</t>
-  </si>
-  <si>
-    <t>Santander Corporate Coupon</t>
-  </si>
-  <si>
-    <t>2.07% in 2022</t>
-  </si>
-  <si>
-    <t>2.05% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0520</t>
-  </si>
-  <si>
-    <t>Santander Select Defensive</t>
-  </si>
-  <si>
-    <t>0.65% in 2022</t>
-  </si>
-  <si>
-    <t>1.67% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0530</t>
-  </si>
-  <si>
-    <t>Santander Select Moderate</t>
-  </si>
-  <si>
-    <t>0.95% in 2022</t>
-  </si>
-  <si>
-    <t>1.77% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0540</t>
-  </si>
-  <si>
-    <t>Santander Select Dynamic</t>
-  </si>
-  <si>
-    <t>1.27% in 2022</t>
-  </si>
-  <si>
-    <t>1.88% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0550</t>
-  </si>
-  <si>
-    <t>Santander Multi Index Ambition</t>
-  </si>
-  <si>
-    <t>9598007G946BVLPNB203</t>
-  </si>
-  <si>
-    <t>1.95% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0560</t>
-  </si>
-  <si>
-    <t>Santander Multi Index Balance</t>
-  </si>
-  <si>
-    <t>1.63% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0570</t>
-  </si>
-  <si>
-    <t>Santander Multi Index Substance</t>
-  </si>
-  <si>
-    <t>959800584EXE1C3KEB87</t>
-  </si>
-  <si>
-    <t>1.34% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0580</t>
-  </si>
-  <si>
-    <t>Santander Select Income</t>
-  </si>
-  <si>
-    <t>9598006HEB2F274GR185</t>
-  </si>
-  <si>
-    <t>1.93% in 2023</t>
-  </si>
-  <si>
     <t>LXMS0620</t>
   </si>
   <si>
@@ -1475,141 +1616,6 @@
     <t>1.02% in 2023</t>
   </si>
   <si>
-    <t>LXMS0650</t>
-  </si>
-  <si>
-    <t>Santander Future Wealth</t>
-  </si>
-  <si>
-    <t>222100U8QAL5OT5ATQ18</t>
-  </si>
-  <si>
-    <t>4.66% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0660</t>
-  </si>
-  <si>
-    <t>Santander Latin American Investment Grade ESG Bond</t>
-  </si>
-  <si>
-    <t>2221005XUWXMGGGB3M32</t>
-  </si>
-  <si>
-    <t>esg_latam</t>
-  </si>
-  <si>
-    <t>0.47% in 2022</t>
-  </si>
-  <si>
-    <t>1.16% in 2023</t>
-  </si>
-  <si>
-    <t>A- in 2022 and 2021</t>
-  </si>
-  <si>
-    <t>LXMS0680</t>
-  </si>
-  <si>
-    <t>Santander Prosperity</t>
-  </si>
-  <si>
-    <t>213800WJFHHC61MCKV72</t>
-  </si>
-  <si>
-    <t>art9_prosperity</t>
-  </si>
-  <si>
-    <t>3.05% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0720</t>
-  </si>
-  <si>
-    <t>Santander US Equity ESG</t>
-  </si>
-  <si>
-    <t>213800DI4XPBXR5VYI22</t>
-  </si>
-  <si>
-    <t>esg_fi_eng</t>
-  </si>
-  <si>
-    <t>0.29% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0730</t>
-  </si>
-  <si>
-    <t>Santander Target Maturity 2025 Euro</t>
-  </si>
-  <si>
-    <t>213800DWGL9SKQ9J2V62</t>
-  </si>
-  <si>
-    <t>art8_nopai_eng</t>
-  </si>
-  <si>
-    <t>7.32% in 2023</t>
-  </si>
-  <si>
-    <t>LXMS0750</t>
-  </si>
-  <si>
-    <t>Santander Multi Index Income</t>
-  </si>
-  <si>
-    <t>213800ZZDSJ7BUR7SO54</t>
-  </si>
-  <si>
-    <t>18/01/2024 - 31/12/2024</t>
-  </si>
-  <si>
-    <t>art8_noprev_eng</t>
-  </si>
-  <si>
-    <t>LXMS0770</t>
-  </si>
-  <si>
-    <t>Santander Target Maturity Euro II</t>
-  </si>
-  <si>
-    <t>213800PW972JZ4RWG390</t>
-  </si>
-  <si>
-    <t>27/02/2024 - 31/12/2024</t>
-  </si>
-  <si>
-    <t>art8_nopai_noprev_eng</t>
-  </si>
-  <si>
-    <t>LXMS0780</t>
-  </si>
-  <si>
-    <t>Santander Go Global Environmental Solutions - BNP Paribas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 213800115BDICDFT5J73</t>
-  </si>
-  <si>
-    <t>21/05/2024 - 31/12/2024</t>
-  </si>
-  <si>
-    <t>go_bnp</t>
-  </si>
-  <si>
-    <t>LXMS0790</t>
-  </si>
-  <si>
-    <t>Santander Target Maturity Euro III</t>
-  </si>
-  <si>
-    <t>2138001YITBC1N3O2O34</t>
-  </si>
-  <si>
-    <t>9/7/2024 - 31/12/2024</t>
-  </si>
-  <si>
     <t>PFI01541</t>
   </si>
   <si>
@@ -1796,6 +1802,9 @@
     <t>PFIT1830</t>
   </si>
   <si>
+    <t>Fundo de Investimento Mobiliário Aberto de Obrigações de Poupança Reforma Santander Aforro PPR OICVM</t>
+  </si>
+  <si>
     <t>549300NK9YXGJCPV4J35. ISIN: PTSFFAHM0013</t>
   </si>
   <si>
@@ -1844,10 +1853,19 @@
     <t>259400EKRN6P1BKOFP58</t>
   </si>
   <si>
+    <t>1/01/2024 - 30/12/2024</t>
+  </si>
+  <si>
     <t>POL</t>
   </si>
   <si>
-    <t>art8_feeder_pol</t>
+    <t>art8_feeder_pol_euroequity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.61% w 2023 r. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A- in 2022 w 2023 r. </t>
   </si>
   <si>
     <t>PLSFIO0198</t>
@@ -1862,6 +1880,12 @@
     <t>art8_robeco_pol</t>
   </si>
   <si>
+    <t xml:space="preserve">0.66% w 2022 r. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.02% w 2023 r. </t>
+  </si>
+  <si>
     <t>PLSFIO0321</t>
   </si>
   <si>
@@ -1874,6 +1898,9 @@
     <t>art9_prosperity_feeder_pol</t>
   </si>
   <si>
+    <t xml:space="preserve">3.05% w 2023 r. </t>
+  </si>
+  <si>
     <t>PLSFIO0323</t>
   </si>
   <si>
@@ -1883,6 +1910,12 @@
     <t>259400AK3GPPZFPUCA75</t>
   </si>
   <si>
+    <t>art8_feeder_pol_futurewealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.66% w 2023 r. </t>
+  </si>
+  <si>
     <t>PLSFIO0319</t>
   </si>
   <si>
@@ -1892,7 +1925,7 @@
     <t>259400U4O42L0RO5LF32</t>
   </si>
   <si>
-    <t>27/11/2024 - 31/12/2024</t>
+    <t>27/11/2024 - 30/12/2024</t>
   </si>
   <si>
     <t>art8_fi_noprev_pol</t>
@@ -1907,17 +1940,14 @@
     <t>213800TE1KQAHY422M59</t>
   </si>
   <si>
-    <t>12/12/2024 - 31/12/2024</t>
-  </si>
-  <si>
-    <t>Fundo de Investimento Mobiliário Aberto de Obrigações de Poupança Reforma Santander Aforro PPR OICVM</t>
+    <t>12/12/2024 - 30/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2070,7 +2100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2095,9 +2125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,7 +2156,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2169,9 +2195,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2510,31 +2561,31 @@
   <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="F102" sqref="F102:F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="67.54296875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="57.1796875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="28.54296875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" style="21" customWidth="1"/>
-    <col min="9" max="10" width="25.54296875" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="28.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="20" customWidth="1"/>
+    <col min="9" max="10" width="25.5703125" style="16" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2543,31 +2594,31 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" hidden="1">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -2582,7 +2633,7 @@
       <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="8" t="s">
@@ -2592,14 +2643,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16.5" hidden="1">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2614,7 +2665,7 @@
       <c r="G3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -2624,14 +2675,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16.5" hidden="1">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -2646,7 +2697,7 @@
       <c r="G4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2656,14 +2707,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16.5" hidden="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -2676,7 +2727,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="8"/>
@@ -2684,14 +2735,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16.5" hidden="1">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -2704,7 +2755,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="8"/>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I6" s="8"/>
@@ -2712,14 +2763,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16.5" hidden="1">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -2732,7 +2783,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="8"/>
@@ -2740,14 +2791,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16.5" hidden="1">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -2762,7 +2813,7 @@
       <c r="G8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -2772,14 +2823,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16.5" hidden="1">
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -2794,7 +2845,7 @@
       <c r="G9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -2804,14 +2855,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16.5" hidden="1">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -2826,7 +2877,7 @@
       <c r="G10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>58</v>
       </c>
       <c r="I10" s="8" t="s">
@@ -2836,14 +2887,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16.5" hidden="1">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2858,7 +2909,7 @@
       <c r="G11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="8" t="s">
@@ -2868,14 +2919,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16.5" hidden="1">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -2890,7 +2941,7 @@
       <c r="G12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -2900,14 +2951,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16.5" hidden="1">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -2922,7 +2973,7 @@
       <c r="G13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>73</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -2932,14 +2983,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16.5" hidden="1">
       <c r="A14" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2954,7 +3005,7 @@
       <c r="G14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>79</v>
       </c>
       <c r="I14" s="8" t="s">
@@ -2964,14 +3015,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16.5" hidden="1">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -2984,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>83</v>
       </c>
       <c r="I15" s="8"/>
@@ -2992,11 +3043,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:11" ht="16.5" hidden="1">
+      <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3014,7 +3065,7 @@
       <c r="G16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>89</v>
       </c>
       <c r="I16" s="8" t="s">
@@ -3024,11 +3075,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:10" ht="16.5" hidden="1">
+      <c r="A17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3046,7 +3097,7 @@
       <c r="G17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>94</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -3056,11 +3107,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:10" ht="16.5" hidden="1">
+      <c r="A18" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3078,7 +3129,7 @@
       <c r="G18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>99</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -3088,11 +3139,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:10" ht="16.5" hidden="1">
+      <c r="A19" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3110,7 +3161,7 @@
       <c r="G19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>105</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -3120,11 +3171,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
+    <row r="20" spans="1:10" ht="16.5" hidden="1">
+      <c r="A20" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3142,7 +3193,7 @@
       <c r="G20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>111</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -3152,11 +3203,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:10" ht="16.5" hidden="1">
+      <c r="A21" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3174,7 +3225,7 @@
       <c r="G21" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>116</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -3184,11 +3235,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:10" ht="16.5" hidden="1">
+      <c r="A22" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3206,7 +3257,7 @@
       <c r="G22" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>122</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -3216,11 +3267,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:10" ht="16.5" hidden="1">
+      <c r="A23" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -3238,7 +3289,7 @@
       <c r="G23" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>127</v>
       </c>
       <c r="I23" s="8" t="s">
@@ -3248,11 +3299,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+    <row r="24" spans="1:10" ht="16.5" hidden="1">
+      <c r="A24" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -3270,7 +3321,7 @@
       <c r="G24" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>132</v>
       </c>
       <c r="I24" s="8" t="s">
@@ -3280,11 +3331,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:10" ht="16.5" hidden="1">
+      <c r="A25" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>134</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -3296,13 +3347,13 @@
       <c r="E25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>136</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>138</v>
       </c>
       <c r="I25" s="8" t="s">
@@ -3312,11 +3363,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:10" ht="16.5" hidden="1">
+      <c r="A26" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -3328,13 +3379,13 @@
       <c r="E26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>143</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>145</v>
       </c>
       <c r="I26" s="8">
@@ -3344,11 +3395,11 @@
         <v>80.06</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:10" ht="16.5" hidden="1">
+      <c r="A27" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -3366,7 +3417,7 @@
       <c r="G27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>150</v>
       </c>
       <c r="I27" s="8" t="s">
@@ -3376,11 +3427,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+    <row r="28" spans="1:10" ht="16.5" hidden="1">
+      <c r="A28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -3398,7 +3449,7 @@
       <c r="G28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>155</v>
       </c>
       <c r="I28" s="8" t="s">
@@ -3408,11 +3459,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:10" ht="16.5" hidden="1">
+      <c r="A29" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3430,7 +3481,7 @@
       <c r="G29" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>160</v>
       </c>
       <c r="I29" s="8" t="s">
@@ -3440,11 +3491,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+    <row r="30" spans="1:10" ht="16.5" hidden="1">
+      <c r="A30" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>162</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -3462,7 +3513,7 @@
       <c r="G30" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>165</v>
       </c>
       <c r="I30" s="8" t="s">
@@ -3472,11 +3523,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:10" ht="16.5" hidden="1">
+      <c r="A31" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -3494,7 +3545,7 @@
       <c r="G31" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>170</v>
       </c>
       <c r="I31" s="8" t="s">
@@ -3504,11 +3555,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+    <row r="32" spans="1:10" ht="16.5" hidden="1">
+      <c r="A32" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>172</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -3526,7 +3577,7 @@
       <c r="G32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>175</v>
       </c>
       <c r="I32" s="8" t="s">
@@ -3536,11 +3587,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:10" ht="16.5" hidden="1">
+      <c r="A33" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -3558,7 +3609,7 @@
       <c r="G33" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>181</v>
       </c>
       <c r="I33" s="8" t="s">
@@ -3568,27 +3619,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+    <row r="34" spans="1:10" ht="16.5" hidden="1">
+      <c r="A34" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="20" t="s">
+      <c r="D34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>185</v>
       </c>
       <c r="G34" s="8"/>
-      <c r="H34" s="14"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="8" t="s">
         <v>18</v>
       </c>
@@ -3596,11 +3647,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:10" ht="16.5" hidden="1">
+      <c r="A35" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -3618,7 +3669,7 @@
       <c r="G35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>190</v>
       </c>
       <c r="I35" s="8" t="s">
@@ -3628,11 +3679,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+    <row r="36" spans="1:10" ht="16.5" hidden="1">
+      <c r="A36" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>192</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -3650,7 +3701,7 @@
       <c r="G36" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>196</v>
       </c>
       <c r="I36" s="8" t="s">
@@ -3660,11 +3711,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:10" ht="16.5" hidden="1">
+      <c r="A37" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -3682,7 +3733,7 @@
       <c r="G37" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>200</v>
       </c>
       <c r="I37" s="8" t="s">
@@ -3692,11 +3743,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+    <row r="38" spans="1:10" ht="16.5" hidden="1">
+      <c r="A38" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>202</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -3708,11 +3759,11 @@
       <c r="E38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="17" t="s">
         <v>204</v>
       </c>
       <c r="G38" s="8"/>
-      <c r="H38" s="14" t="s">
+      <c r="H38" s="13" t="s">
         <v>205</v>
       </c>
       <c r="I38" s="8"/>
@@ -3720,11 +3771,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:10" ht="16.5" hidden="1">
+      <c r="A39" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>207</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -3742,7 +3793,7 @@
       <c r="G39" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H39" s="14" t="s">
+      <c r="H39" s="13" t="s">
         <v>211</v>
       </c>
       <c r="I39" s="8" t="s">
@@ -3752,11 +3803,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+    <row r="40" spans="1:10" ht="16.5" hidden="1">
+      <c r="A40" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>213</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -3774,7 +3825,7 @@
       <c r="G40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H40" s="14" t="s">
+      <c r="H40" s="13" t="s">
         <v>215</v>
       </c>
       <c r="I40" s="8" t="s">
@@ -3784,11 +3835,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:10" ht="16.5" hidden="1">
+      <c r="A41" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>217</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -3800,13 +3851,13 @@
       <c r="E41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="19" t="s">
         <v>219</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="13" t="s">
         <v>221</v>
       </c>
       <c r="I41" s="8" t="s">
@@ -3816,11 +3867,11 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+    <row r="42" spans="1:10" ht="16.5" hidden="1">
+      <c r="A42" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>223</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -3838,7 +3889,7 @@
       <c r="G42" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="H42" s="14" t="s">
+      <c r="H42" s="13" t="s">
         <v>226</v>
       </c>
       <c r="I42" s="8" t="s">
@@ -3848,11 +3899,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:10" ht="16.5" hidden="1">
+      <c r="A43" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="18" t="s">
         <v>228</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -3870,7 +3921,7 @@
       <c r="G43" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="13" t="s">
         <v>231</v>
       </c>
       <c r="I43" s="8" t="s">
@@ -3880,11 +3931,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
+    <row r="44" spans="1:10" ht="16.5" hidden="1">
+      <c r="A44" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>233</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -3902,7 +3953,7 @@
       <c r="G44" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>236</v>
       </c>
       <c r="I44" s="8" t="s">
@@ -3912,7 +3963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="16.5" hidden="1">
       <c r="A45" s="6" t="s">
         <v>237</v>
       </c>
@@ -3934,7 +3985,7 @@
       <c r="G45" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>241</v>
       </c>
       <c r="I45" s="8" t="s">
@@ -3944,14 +3995,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="16.5" hidden="1">
       <c r="A46" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>244</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -3966,7 +4017,7 @@
       <c r="G46" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="13" t="s">
         <v>247</v>
       </c>
       <c r="I46" s="8" t="s">
@@ -3976,14 +4027,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="16.5" hidden="1">
       <c r="A47" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="15" t="s">
         <v>250</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -3998,7 +4049,7 @@
       <c r="G47" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>252</v>
       </c>
       <c r="I47" s="8" t="s">
@@ -4008,14 +4059,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="16.5" hidden="1">
       <c r="A48" s="6" t="s">
         <v>253</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="6"/>
       <c r="E48" s="5" t="s">
         <v>14</v>
@@ -4024,18 +4075,18 @@
         <v>255</v>
       </c>
       <c r="G48" s="8"/>
-      <c r="H48" s="14"/>
+      <c r="H48" s="13"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="16.5" hidden="1">
       <c r="A49" s="6" t="s">
         <v>256</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="6"/>
       <c r="E49" s="5" t="s">
         <v>14</v>
@@ -4044,18 +4095,18 @@
         <v>255</v>
       </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="14"/>
+      <c r="H49" s="13"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="16.5" hidden="1">
       <c r="A50" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="6"/>
       <c r="E50" s="5" t="s">
         <v>14</v>
@@ -4064,18 +4115,18 @@
         <v>255</v>
       </c>
       <c r="G50" s="8"/>
-      <c r="H50" s="14"/>
+      <c r="H50" s="13"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="16.5" hidden="1">
       <c r="A51" s="6" t="s">
         <v>260</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5" t="s">
         <v>14</v>
@@ -4084,18 +4135,18 @@
         <v>255</v>
       </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="16.5" hidden="1">
       <c r="A52" s="6" t="s">
         <v>262</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="6"/>
       <c r="E52" s="5" t="s">
         <v>14</v>
@@ -4104,18 +4155,18 @@
         <v>255</v>
       </c>
       <c r="G52" s="8"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="13"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="16.5" hidden="1">
       <c r="A53" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="6"/>
       <c r="E53" s="5" t="s">
         <v>14</v>
@@ -4124,18 +4175,18 @@
         <v>255</v>
       </c>
       <c r="G53" s="8"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="13"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="16.5" hidden="1">
       <c r="A54" s="6" t="s">
         <v>266</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="6"/>
       <c r="E54" s="5" t="s">
         <v>14</v>
@@ -4144,18 +4195,18 @@
         <v>255</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="13"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="16.5" hidden="1">
       <c r="A55" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>270</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -4168,7 +4219,7 @@
         <v>271</v>
       </c>
       <c r="G55" s="8"/>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>272</v>
       </c>
       <c r="I55" s="8"/>
@@ -4176,14 +4227,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" ht="16.5" hidden="1">
       <c r="A56" s="6" t="s">
         <v>273</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="6"/>
       <c r="E56" s="5" t="s">
         <v>14</v>
@@ -4192,18 +4243,18 @@
         <v>255</v>
       </c>
       <c r="G56" s="8"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="13"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="16.5" hidden="1">
       <c r="A57" s="6" t="s">
         <v>275</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="6"/>
       <c r="E57" s="5" t="s">
         <v>14</v>
@@ -4212,18 +4263,18 @@
         <v>255</v>
       </c>
       <c r="G57" s="8"/>
-      <c r="H57" s="14"/>
+      <c r="H57" s="13"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="16.5" hidden="1">
       <c r="A58" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="6"/>
       <c r="E58" s="5" t="s">
         <v>14</v>
@@ -4232,18 +4283,18 @@
         <v>255</v>
       </c>
       <c r="G58" s="8"/>
-      <c r="H58" s="14"/>
+      <c r="H58" s="13"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="16.5" hidden="1">
       <c r="A59" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="6"/>
       <c r="E59" s="5" t="s">
         <v>14</v>
@@ -4252,18 +4303,18 @@
         <v>255</v>
       </c>
       <c r="G59" s="8"/>
-      <c r="H59" s="14"/>
+      <c r="H59" s="13"/>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" ht="16.5" hidden="1">
       <c r="A60" s="6" t="s">
         <v>281</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5" t="s">
         <v>14</v>
@@ -4272,18 +4323,18 @@
         <v>255</v>
       </c>
       <c r="G60" s="8"/>
-      <c r="H60" s="14"/>
+      <c r="H60" s="13"/>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" ht="16.5" hidden="1">
       <c r="A61" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>285</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -4296,7 +4347,7 @@
         <v>251</v>
       </c>
       <c r="G61" s="8"/>
-      <c r="H61" s="14" t="s">
+      <c r="H61" s="13" t="s">
         <v>286</v>
       </c>
       <c r="I61" s="8"/>
@@ -4304,14 +4355,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="16.5" hidden="1">
       <c r="A62" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>289</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -4326,7 +4377,7 @@
       <c r="G62" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="H62" s="13" t="s">
         <v>292</v>
       </c>
       <c r="I62" s="8" t="s">
@@ -4336,14 +4387,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" ht="16.5" hidden="1">
       <c r="A63" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>295</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -4358,7 +4409,7 @@
       <c r="G63" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="H63" s="13" t="s">
         <v>297</v>
       </c>
       <c r="I63" s="8" t="s">
@@ -4368,14 +4419,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" ht="16.5" hidden="1">
       <c r="A64" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>300</v>
       </c>
       <c r="D64" s="5" t="s">
@@ -4390,7 +4441,7 @@
       <c r="G64" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>302</v>
       </c>
       <c r="I64" s="8" t="s">
@@ -4400,14 +4451,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" ht="16.5" hidden="1">
       <c r="A65" s="6" t="s">
         <v>303</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="6"/>
       <c r="E65" s="5" t="s">
         <v>14</v>
@@ -4416,18 +4467,18 @@
         <v>255</v>
       </c>
       <c r="G65" s="8"/>
-      <c r="H65" s="14"/>
+      <c r="H65" s="13"/>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" ht="16.5" hidden="1">
       <c r="A66" s="6" t="s">
         <v>305</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="6"/>
       <c r="E66" s="5" t="s">
         <v>14</v>
@@ -4436,18 +4487,18 @@
         <v>255</v>
       </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="14"/>
+      <c r="H66" s="13"/>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" ht="16.5" hidden="1">
       <c r="A67" s="6" t="s">
         <v>307</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="6"/>
       <c r="E67" s="5" t="s">
         <v>14</v>
@@ -4456,18 +4507,18 @@
         <v>255</v>
       </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="14"/>
+      <c r="H67" s="13"/>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" ht="16.5" hidden="1">
       <c r="A68" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>311</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -4480,7 +4531,7 @@
         <v>251</v>
       </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="13" t="s">
         <v>111</v>
       </c>
       <c r="I68" s="8"/>
@@ -4488,14 +4539,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" ht="16.5" hidden="1">
       <c r="A69" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>314</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -4510,7 +4561,7 @@
       <c r="G69" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>316</v>
       </c>
       <c r="I69" s="8" t="s">
@@ -4520,14 +4571,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" ht="16.5" hidden="1">
       <c r="A70" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>319</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -4540,7 +4591,7 @@
         <v>251</v>
       </c>
       <c r="G70" s="8"/>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="13" t="s">
         <v>320</v>
       </c>
       <c r="I70" s="8"/>
@@ -4548,14 +4599,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" ht="16.5" hidden="1">
       <c r="A71" s="6" t="s">
         <v>321</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="6"/>
       <c r="E71" s="5" t="s">
         <v>14</v>
@@ -4564,18 +4615,18 @@
         <v>255</v>
       </c>
       <c r="G71" s="8"/>
-      <c r="H71" s="14"/>
+      <c r="H71" s="13"/>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" ht="16.5" hidden="1">
       <c r="A72" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="15" t="s">
         <v>325</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -4588,7 +4639,7 @@
         <v>326</v>
       </c>
       <c r="G72" s="8"/>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="13" t="s">
         <v>53</v>
       </c>
       <c r="I72" s="8"/>
@@ -4596,14 +4647,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" ht="16.5" hidden="1">
       <c r="A73" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="15" t="s">
         <v>329</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -4616,7 +4667,7 @@
         <v>251</v>
       </c>
       <c r="G73" s="8"/>
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="13" t="s">
         <v>330</v>
       </c>
       <c r="I73" s="8"/>
@@ -4624,14 +4675,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" ht="16.5" hidden="1">
       <c r="A74" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
         <v>333</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -4646,7 +4697,7 @@
       <c r="G74" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="13" t="s">
         <v>336</v>
       </c>
       <c r="I74" s="8" t="s">
@@ -4656,14 +4707,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" ht="16.5" hidden="1">
       <c r="A75" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C75" s="16" t="s">
+      <c r="C75" s="15" t="s">
         <v>339</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -4678,7 +4729,7 @@
       <c r="G75" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="13" t="s">
         <v>341</v>
       </c>
       <c r="I75" s="8" t="s">
@@ -4688,14 +4739,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" ht="16.5" hidden="1">
       <c r="A76" s="6" t="s">
         <v>342</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="6"/>
       <c r="E76" s="5" t="s">
         <v>14</v>
@@ -4704,18 +4755,18 @@
         <v>255</v>
       </c>
       <c r="G76" s="8"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="13"/>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" ht="16.5" hidden="1">
       <c r="A77" s="6" t="s">
         <v>344</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="6"/>
       <c r="E77" s="5" t="s">
         <v>14</v>
@@ -4724,18 +4775,18 @@
         <v>255</v>
       </c>
       <c r="G77" s="8"/>
-      <c r="H77" s="14"/>
+      <c r="H77" s="13"/>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" ht="16.5" hidden="1">
       <c r="A78" s="6" t="s">
         <v>346</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="C78" s="25"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="6"/>
       <c r="E78" s="5" t="s">
         <v>14</v>
@@ -4744,18 +4795,18 @@
         <v>255</v>
       </c>
       <c r="G78" s="8"/>
-      <c r="H78" s="14"/>
+      <c r="H78" s="13"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" ht="16.5" hidden="1">
       <c r="A79" s="6" t="s">
         <v>348</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="C79" s="25"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="6"/>
       <c r="E79" s="5" t="s">
         <v>14</v>
@@ -4764,18 +4815,18 @@
         <v>255</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="13"/>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" ht="16.5" hidden="1">
       <c r="A80" s="6" t="s">
         <v>350</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C80" s="25"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="6"/>
       <c r="E80" s="5" t="s">
         <v>14</v>
@@ -4784,18 +4835,18 @@
         <v>255</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="13"/>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" ht="16.5" hidden="1">
       <c r="A81" s="3" t="s">
         <v>352</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C81" s="15" t="s">
         <v>354</v>
       </c>
       <c r="D81" s="5" t="s">
@@ -4810,7 +4861,7 @@
       <c r="G81" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="13" t="s">
         <v>356</v>
       </c>
       <c r="I81" s="8" t="s">
@@ -4820,14 +4871,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" ht="16.5" hidden="1">
       <c r="A82" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C82" s="15" t="s">
         <v>359</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -4842,7 +4893,7 @@
       <c r="G82" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="13" t="s">
         <v>292</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -4852,14 +4903,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" ht="16.5" hidden="1">
       <c r="A83" s="3" t="s">
         <v>361</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="26"/>
+      <c r="C83" s="24"/>
       <c r="D83" s="3"/>
       <c r="E83" s="5" t="s">
         <v>14</v>
@@ -4868,18 +4919,18 @@
         <v>255</v>
       </c>
       <c r="G83" s="8"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="13"/>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" ht="16.5" hidden="1">
       <c r="A84" s="6" t="s">
         <v>363</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="C84" s="25"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="6"/>
       <c r="E84" s="5" t="s">
         <v>14</v>
@@ -4888,18 +4939,18 @@
         <v>255</v>
       </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="13"/>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" ht="16.5" hidden="1">
       <c r="A85" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="15" t="s">
         <v>367</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -4912,7 +4963,7 @@
         <v>271</v>
       </c>
       <c r="G85" s="8"/>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="13" t="s">
         <v>94</v>
       </c>
       <c r="I85" s="8"/>
@@ -4920,14 +4971,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" ht="16.5" hidden="1">
       <c r="A86" s="6" t="s">
         <v>368</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="C86" s="25"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="6"/>
       <c r="E86" s="5" t="s">
         <v>14</v>
@@ -4936,18 +4987,18 @@
         <v>255</v>
       </c>
       <c r="G86" s="8"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="13"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" ht="16.5" hidden="1">
       <c r="A87" s="3" t="s">
         <v>370</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="15" t="s">
         <v>372</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -4962,7 +5013,7 @@
       <c r="G87" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="H87" s="14" t="s">
+      <c r="H87" s="13" t="s">
         <v>374</v>
       </c>
       <c r="I87" s="8" t="s">
@@ -4972,14 +5023,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" ht="16.5" hidden="1">
       <c r="A88" s="6" t="s">
         <v>375</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C88" s="25"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="6"/>
       <c r="E88" s="5" t="s">
         <v>14</v>
@@ -4988,18 +5039,18 @@
         <v>255</v>
       </c>
       <c r="G88" s="8"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="13"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" ht="16.5" hidden="1">
       <c r="A89" s="3" t="s">
         <v>377</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="15" t="s">
         <v>379</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -5012,7 +5063,7 @@
         <v>251</v>
       </c>
       <c r="G89" s="8"/>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="13" t="s">
         <v>380</v>
       </c>
       <c r="I89" s="8"/>
@@ -5020,14 +5071,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" ht="16.5" hidden="1">
       <c r="A90" s="6" t="s">
         <v>381</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C90" s="25"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="6"/>
       <c r="E90" s="5" t="s">
         <v>14</v>
@@ -5036,18 +5087,18 @@
         <v>255</v>
       </c>
       <c r="G90" s="8"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="13"/>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" ht="16.5" hidden="1">
       <c r="A91" s="6" t="s">
         <v>383</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C91" s="25"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="6"/>
       <c r="E91" s="5" t="s">
         <v>14</v>
@@ -5056,18 +5107,18 @@
         <v>255</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="13"/>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" ht="16.5" hidden="1">
       <c r="A92" s="6" t="s">
         <v>385</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C92" s="25"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="6"/>
       <c r="E92" s="5" t="s">
         <v>14</v>
@@ -5076,18 +5127,18 @@
         <v>255</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="14"/>
+      <c r="H92" s="13"/>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" ht="16.5" hidden="1">
       <c r="A93" s="6" t="s">
         <v>387</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C93" s="25"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="6"/>
       <c r="E93" s="5" t="s">
         <v>14</v>
@@ -5096,18 +5147,18 @@
         <v>255</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="14"/>
+      <c r="H93" s="13"/>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" ht="16.5" hidden="1">
       <c r="A94" s="6" t="s">
         <v>389</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="C94" s="25"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="6"/>
       <c r="E94" s="5" t="s">
         <v>14</v>
@@ -5116,18 +5167,18 @@
         <v>255</v>
       </c>
       <c r="G94" s="8"/>
-      <c r="H94" s="14"/>
+      <c r="H94" s="13"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" ht="16.5" hidden="1">
       <c r="A95" s="6" t="s">
         <v>391</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="C95" s="25"/>
+      <c r="C95" s="23"/>
       <c r="D95" s="6"/>
       <c r="E95" s="5" t="s">
         <v>14</v>
@@ -5136,18 +5187,18 @@
         <v>255</v>
       </c>
       <c r="G95" s="8"/>
-      <c r="H95" s="14"/>
+      <c r="H95" s="13"/>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" ht="16.5" hidden="1">
       <c r="A96" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" s="15" t="s">
         <v>395</v>
       </c>
       <c r="D96" s="5" t="s">
@@ -5160,7 +5211,7 @@
         <v>271</v>
       </c>
       <c r="G96" s="8"/>
-      <c r="H96" s="14" t="s">
+      <c r="H96" s="13" t="s">
         <v>396</v>
       </c>
       <c r="I96" s="8"/>
@@ -5168,14 +5219,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" ht="16.5" hidden="1">
       <c r="A97" s="6" t="s">
         <v>397</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="C97" s="25"/>
+      <c r="C97" s="23"/>
       <c r="D97" s="6"/>
       <c r="E97" s="5" t="s">
         <v>14</v>
@@ -5184,18 +5235,18 @@
         <v>255</v>
       </c>
       <c r="G97" s="8"/>
-      <c r="H97" s="14"/>
+      <c r="H97" s="13"/>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" ht="16.5" hidden="1">
       <c r="A98" s="3" t="s">
         <v>399</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" s="15" t="s">
         <v>401</v>
       </c>
       <c r="D98" s="5" t="s">
@@ -5210,24 +5261,24 @@
       <c r="G98" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H98" s="14" t="s">
+      <c r="H98" s="13" t="s">
         <v>403</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>18</v>
+        <v>404</v>
       </c>
       <c r="J98" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" ht="16.5" hidden="1">
       <c r="A99" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C99" s="25"/>
+        <v>406</v>
+      </c>
+      <c r="C99" s="23"/>
       <c r="D99" s="6"/>
       <c r="E99" s="5" t="s">
         <v>14</v>
@@ -5236,18 +5287,18 @@
         <v>255</v>
       </c>
       <c r="G99" s="8"/>
-      <c r="H99" s="14"/>
+      <c r="H99" s="13"/>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" ht="16.5" hidden="1">
       <c r="A100" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C100" s="25"/>
+        <v>408</v>
+      </c>
+      <c r="C100" s="23"/>
       <c r="D100" s="6"/>
       <c r="E100" s="5" t="s">
         <v>14</v>
@@ -5256,18 +5307,18 @@
         <v>255</v>
       </c>
       <c r="G100" s="8"/>
-      <c r="H100" s="14"/>
+      <c r="H100" s="13"/>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" ht="16.5" hidden="1">
       <c r="A101" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C101" s="25"/>
+        <v>410</v>
+      </c>
+      <c r="C101" s="23"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5" t="s">
         <v>14</v>
@@ -5276,43 +5327,51 @@
         <v>255</v>
       </c>
       <c r="G101" s="8"/>
-      <c r="H101" s="14"/>
+      <c r="H101" s="13"/>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B102" s="7" t="s">
+    <row r="102" spans="1:10" ht="16.5">
+      <c r="A102" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C102" s="40" t="s">
+      <c r="B102" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="C102" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="D102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-    </row>
-    <row r="103" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="G102" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5">
       <c r="A103" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>413</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>13</v>
@@ -5320,31 +5379,31 @@
       <c r="E103" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>419</v>
+      <c r="F103" s="28" t="s">
+        <v>415</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="H103" s="14" t="s">
         <v>421</v>
       </c>
+      <c r="H103" s="13" t="s">
+        <v>422</v>
+      </c>
       <c r="I103" s="8" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="J103" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" ht="15">
       <c r="A104" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>418</v>
+        <v>424</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>13</v>
@@ -5352,57 +5411,63 @@
       <c r="E104" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>419</v>
+      <c r="F104" s="28" t="s">
+        <v>415</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="H104" s="14" t="s">
         <v>425</v>
       </c>
+      <c r="H104" s="13" t="s">
+        <v>426</v>
+      </c>
       <c r="I104" s="8" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16.5">
       <c r="A105" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D105" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="14" t="s">
+      <c r="F105" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H105" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16.5">
       <c r="A106" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>418</v>
+        <v>432</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>433</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>13</v>
@@ -5410,31 +5475,27 @@
       <c r="E106" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="H106" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="F106" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="G106" s="8"/>
+      <c r="H106" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15">
       <c r="A107" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>418</v>
+        <v>436</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>13</v>
@@ -5442,27 +5503,27 @@
       <c r="E107" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>436</v>
+      <c r="F107" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G107" s="8"/>
-      <c r="H107" s="14" t="s">
-        <v>437</v>
+      <c r="H107" s="13" t="s">
+        <v>438</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15">
       <c r="A108" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B108" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="C108" s="23" t="s">
-        <v>418</v>
+      <c r="B108" s="36" t="s">
+        <v>440</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>13</v>
@@ -5470,27 +5531,27 @@
       <c r="E108" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>436</v>
+      <c r="F108" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G108" s="8"/>
-      <c r="H108" s="14" t="s">
-        <v>440</v>
+      <c r="H108" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="16.5">
       <c r="A109" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>418</v>
+        <v>443</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>13</v>
@@ -5498,31 +5559,31 @@
       <c r="E109" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>419</v>
+      <c r="F109" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="H109" s="14" t="s">
         <v>444</v>
       </c>
+      <c r="H109" s="13" t="s">
+        <v>445</v>
+      </c>
       <c r="I109" s="8" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" ht="16.5">
       <c r="A110" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>418</v>
+        <v>447</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>13</v>
@@ -5530,31 +5591,31 @@
       <c r="E110" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>436</v>
+      <c r="F110" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="H110" s="14" t="s">
         <v>448</v>
       </c>
+      <c r="H110" s="13" t="s">
+        <v>449</v>
+      </c>
       <c r="I110" s="8" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
-        <v>449</v>
+    <row r="111" spans="1:10" ht="16.5">
+      <c r="A111" s="5" t="s">
+        <v>450</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>418</v>
+        <v>451</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>413</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>13</v>
@@ -5562,31 +5623,31 @@
       <c r="E111" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>436</v>
+      <c r="F111" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="H111" s="14" t="s">
         <v>452</v>
       </c>
+      <c r="H111" s="13" t="s">
+        <v>453</v>
+      </c>
       <c r="I111" s="8" t="s">
-        <v>18</v>
+        <v>418</v>
       </c>
       <c r="J111" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" ht="16.5">
       <c r="A112" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>418</v>
+        <v>455</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>456</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>13</v>
@@ -5594,31 +5655,27 @@
       <c r="E112" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="H112" s="14" t="s">
+      <c r="F112" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="G112" s="41"/>
+      <c r="H112" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="16.5">
+      <c r="A113" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>456</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J112" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>459</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>13</v>
@@ -5626,10 +5683,11 @@
       <c r="E113" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H113" s="14" t="s">
+      <c r="F113" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="G113" s="42"/>
+      <c r="H113" s="13" t="s">
         <v>460</v>
       </c>
       <c r="I113" s="8"/>
@@ -5637,15 +5695,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="16.5">
       <c r="A114" s="3" t="s">
         <v>461</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>459</v>
+      <c r="C114" s="15" t="s">
+        <v>463</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>13</v>
@@ -5653,27 +5711,27 @@
       <c r="E114" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>436</v>
+      <c r="F114" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G114" s="8"/>
-      <c r="H114" s="14" t="s">
-        <v>463</v>
+      <c r="H114" s="13" t="s">
+        <v>464</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" ht="16.5">
       <c r="A115" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C115" s="16" t="s">
         <v>466</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>467</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>13</v>
@@ -5681,27 +5739,27 @@
       <c r="E115" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>436</v>
+      <c r="F115" s="28" t="s">
+        <v>437</v>
       </c>
       <c r="G115" s="8"/>
-      <c r="H115" s="14" t="s">
-        <v>467</v>
+      <c r="H115" s="13" t="s">
+        <v>468</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" ht="16.5">
       <c r="A116" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C116" s="16" t="s">
         <v>470</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>471</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>13</v>
@@ -5709,115 +5767,99 @@
       <c r="E116" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>436</v>
+      <c r="F116" s="31" t="s">
+        <v>472</v>
       </c>
       <c r="G116" s="8"/>
-      <c r="H116" s="14" t="s">
-        <v>471</v>
+      <c r="H116" s="13" t="s">
+        <v>473</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C117" s="16" t="s">
+    <row r="117" spans="1:10" ht="16.5">
+      <c r="A117" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E117" s="3" t="s">
+      <c r="B117" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C117" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E117" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="H117" s="14" t="s">
-        <v>477</v>
-      </c>
+      <c r="F117" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="G117" s="8"/>
+      <c r="H117" s="13"/>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:10" ht="16.5">
+      <c r="A118" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F118" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="G118" s="8"/>
-      <c r="H118" s="14" t="s">
-        <v>481</v>
-      </c>
+      <c r="H118" s="13"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="J118" s="8"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5">
       <c r="A119" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="C119" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="D119" s="5" t="s">
-        <v>13</v>
+      <c r="C119" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="H119" s="14" t="s">
+      <c r="F119" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="G119" s="8"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="8"/>
+      <c r="J119" s="8"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5">
+      <c r="A120" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="C120" s="15" t="s">
         <v>490</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>491</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>13</v>
@@ -5825,25 +5867,25 @@
       <c r="E120" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="F120" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="G120" s="8"/>
+      <c r="H120" s="13" t="s">
         <v>492</v>
-      </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="14" t="s">
-        <v>493</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" ht="16.5">
       <c r="A121" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="C121" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>496</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>13</v>
@@ -5851,27 +5893,27 @@
       <c r="E121" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="G121" s="8"/>
+      <c r="H121" s="13" t="s">
         <v>497</v>
-      </c>
-      <c r="G121" s="8"/>
-      <c r="H121" s="14" t="s">
-        <v>498</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" ht="16.5">
       <c r="A122" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="C122" s="15" t="s">
         <v>500</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>501</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>13</v>
@@ -5879,806 +5921,840 @@
       <c r="E122" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F122" s="8" t="s">
+      <c r="F122" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="14" t="s">
+      <c r="H122" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="I122" s="8"/>
+      <c r="I122" s="8" t="s">
+        <v>504</v>
+      </c>
       <c r="J122" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B123" s="4" t="s">
+    <row r="123" spans="1:10" ht="16.5">
+      <c r="A123" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="B123" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="40" t="s">
         <v>507</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="D123" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E123" s="6" t="s">
         <v>414</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G123" s="8"/>
-      <c r="H123" s="14"/>
+      <c r="H123" s="13"/>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B124" s="7" t="s">
+    <row r="124" spans="1:10" ht="16.5">
+      <c r="A124" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C124" s="28" t="s">
+      <c r="B124" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="C124" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="D124" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F124" s="8" t="s">
-        <v>513</v>
+      <c r="F124" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="G124" s="8"/>
-      <c r="H124" s="14"/>
+      <c r="H124" s="13"/>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125" spans="1:10" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" ht="18" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C125" s="27" t="s">
         <v>516</v>
       </c>
+      <c r="C125" s="21" t="s">
+        <v>413</v>
+      </c>
       <c r="D125" s="3" t="s">
-        <v>517</v>
+        <v>13</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="G125" s="8"/>
+      <c r="H125" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="G125" s="8"/>
-      <c r="H125" s="14"/>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="6" t="s">
+    <row r="126" spans="1:10" ht="16.5">
+      <c r="A126" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D126" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="14"/>
+      <c r="G126" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>524</v>
+      </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127" spans="1:10" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="B127" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="C127" s="26" t="s">
+    <row r="127" spans="1:10" s="33" customFormat="1" ht="16.5" hidden="1">
+      <c r="A127" s="28" t="s">
         <v>525</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="B127" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="E127" s="30" t="s">
+      <c r="C127" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="F127" s="33" t="s">
+      <c r="D127" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="E127" s="28" t="s">
         <v>529</v>
       </c>
-      <c r="H127" s="34" t="s">
+      <c r="F127" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="I127" s="33" t="s">
+      <c r="G127" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="J127" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="35" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="30" t="s">
+      <c r="H127" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="B128" s="31" t="s">
+      <c r="I127" s="31" t="s">
         <v>533</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="J127" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="33" customFormat="1" ht="16.5" hidden="1">
+      <c r="A128" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="D128" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="E128" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="F128" s="33" t="s">
+      <c r="B128" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-    </row>
-    <row r="129" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C128" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="F128" s="31" t="s">
+        <v>537</v>
+      </c>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="34"/>
+      <c r="J128" s="34"/>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" hidden="1">
       <c r="A129" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>538</v>
+        <v>539</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G129" s="8"/>
-      <c r="H129" s="14" t="s">
-        <v>540</v>
+      <c r="H129" s="13" t="s">
+        <v>542</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J129" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" ht="33" hidden="1">
       <c r="A130" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>539</v>
-      </c>
       <c r="G130" s="8"/>
-      <c r="H130" s="14" t="s">
-        <v>544</v>
+      <c r="H130" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J130" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" ht="33" hidden="1">
       <c r="A131" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>549</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G131" s="8"/>
-      <c r="H131" s="14" t="s">
-        <v>548</v>
+      <c r="H131" s="13" t="s">
+        <v>550</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J131" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" ht="16.5" hidden="1">
       <c r="A132" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>553</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G132" s="8"/>
-      <c r="H132" s="14" t="s">
-        <v>553</v>
+      <c r="H132" s="13" t="s">
+        <v>555</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J132" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" ht="33" hidden="1">
       <c r="A133" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="G133" s="8"/>
-      <c r="H133" s="14" t="s">
-        <v>557</v>
+      <c r="H133" s="13" t="s">
+        <v>559</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J133" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" ht="16.5" hidden="1">
       <c r="A134" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>560</v>
+        <v>561</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>562</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G134" s="8"/>
-      <c r="H134" s="14" t="s">
-        <v>561</v>
+      <c r="H134" s="13" t="s">
+        <v>563</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J134" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" ht="16.5" hidden="1">
       <c r="A135" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>564</v>
+        <v>565</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>566</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G135" s="8"/>
-      <c r="H135" s="14" t="s">
-        <v>565</v>
+      <c r="H135" s="13" t="s">
+        <v>567</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J135" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" ht="16.5" hidden="1">
       <c r="A136" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B136" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G136" s="8"/>
+      <c r="H136" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" hidden="1">
+      <c r="A137" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G137" s="8"/>
+      <c r="H137" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" hidden="1">
+      <c r="A138" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G138" s="8"/>
+      <c r="H138" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="J136" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="I137" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="J137" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B138" s="4" t="s">
+      <c r="I138" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" hidden="1">
+      <c r="A139" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G139" s="8"/>
+      <c r="H139" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" hidden="1">
+      <c r="A140" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G140" s="8"/>
+      <c r="H140" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="J138" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="J139" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="I140" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J140" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" ht="33" hidden="1">
       <c r="A141" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>585</v>
+        <v>587</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>588</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G141" s="8"/>
-      <c r="H141" s="14" t="s">
-        <v>586</v>
+      <c r="H141" s="13" t="s">
+        <v>589</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J141" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" ht="16.5" hidden="1">
       <c r="A142" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>592</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G142" s="8"/>
-      <c r="H142" s="14" t="s">
-        <v>591</v>
+      <c r="H142" s="13" t="s">
+        <v>594</v>
       </c>
       <c r="I142" s="8"/>
       <c r="J142" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" ht="16.5" hidden="1">
       <c r="A143" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="D143" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C143" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>590</v>
-      </c>
       <c r="G143" s="8"/>
-      <c r="H143" s="14" t="s">
-        <v>594</v>
+      <c r="H143" s="13" t="s">
+        <v>597</v>
       </c>
       <c r="I143" s="8"/>
       <c r="J143" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" ht="16.5" hidden="1">
       <c r="A144" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>589</v>
+        <v>599</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>592</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="G144" s="8"/>
-      <c r="H144" s="14" t="s">
-        <v>597</v>
+      <c r="H144" s="13" t="s">
+        <v>600</v>
       </c>
       <c r="I144" s="8"/>
       <c r="J144" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:10" ht="16.5" hidden="1">
       <c r="A145" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="B145" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="C145" s="37" t="s">
-        <v>600</v>
+        <v>601</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>603</v>
       </c>
       <c r="D145" s="38" t="s">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>606</v>
       </c>
       <c r="G145" s="8"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-    </row>
-    <row r="146" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
+      <c r="H145" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" hidden="1">
       <c r="A146" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="B146" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>610</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="D146" s="38" t="s">
         <v>604</v>
       </c>
-      <c r="C146" s="37" t="s">
+      <c r="E146" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="D146" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="14"/>
+      <c r="F146" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="G146" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>614</v>
+      </c>
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:10" ht="15" hidden="1">
       <c r="A147" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B147" s="37" t="s">
-        <v>608</v>
-      </c>
-      <c r="C147" s="37" t="s">
-        <v>609</v>
+        <v>615</v>
+      </c>
+      <c r="B147" s="35" t="s">
+        <v>616</v>
+      </c>
+      <c r="C147" s="35" t="s">
+        <v>617</v>
       </c>
       <c r="D147" s="38" t="s">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
+      </c>
+      <c r="F147" s="46" t="s">
+        <v>618</v>
       </c>
       <c r="G147" s="8"/>
-      <c r="H147" s="14"/>
+      <c r="H147" s="37" t="s">
+        <v>619</v>
+      </c>
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:10" ht="16.5" hidden="1">
       <c r="A148" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="B148" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="C148" s="37" t="s">
-        <v>613</v>
+        <v>620</v>
+      </c>
+      <c r="B148" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>622</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F148" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>623</v>
       </c>
       <c r="G148" s="8"/>
-      <c r="H148" s="14"/>
+      <c r="H148" s="37" t="s">
+        <v>624</v>
+      </c>
       <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-    </row>
-    <row r="149" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A149" s="29" t="s">
-        <v>614</v>
-      </c>
-      <c r="B149" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>616</v>
+      <c r="J148" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" hidden="1">
+      <c r="A149" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>627</v>
       </c>
       <c r="D149" s="38" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F149" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-    </row>
-    <row r="150" spans="1:10" ht="16.5" hidden="1" x14ac:dyDescent="0.5">
-      <c r="A150" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="B150" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="C150" s="37" t="s">
-        <v>621</v>
+        <v>605</v>
+      </c>
+      <c r="F149" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" hidden="1">
+      <c r="A150" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="B150" s="35" t="s">
+        <v>631</v>
+      </c>
+      <c r="C150" s="35" t="s">
+        <v>632</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="F150" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="G150" s="28"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="28"/>
+        <v>605</v>
+      </c>
+      <c r="F150" s="47" t="s">
+        <v>629</v>
+      </c>
+      <c r="G150" s="23"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K150" xr:uid="{41D9791A-5806-4529-A166-B2A3773D8802}">
     <filterColumn colId="4">
       <filters>
-        <filter val="PT"/>
+        <filter val="LUX"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:K144">
-      <sortCondition ref="A1:A150"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:K126">
+      <sortCondition ref="F1:F150"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8">
@@ -6688,15 +6764,6 @@
     <Comment xmlns="ee51a08e-cffb-442e-9a85-1980beacc2f8" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6915,39 +6982,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A9289C4-D150-42AA-B6FF-66D9C6607C50}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
-    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8E79D5-88FA-489E-8500-1B15CD65140C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD8E79D5-88FA-489E-8500-1B15CD65140C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A9289C4-D150-42AA-B6FF-66D9C6607C50}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3EC13CA-7BDB-4D66-8673-9D7BF7DB0AE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee51a08e-cffb-442e-9a85-1980beacc2f8"/>
-    <ds:schemaRef ds:uri="9f04ef3f-090d-46e3-96be-1fbea4829461"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3EC13CA-7BDB-4D66-8673-9D7BF7DB0AE6}"/>
 </file>